--- a/Report Finance.xlsx
+++ b/Report Finance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\Dashboard Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE8CA17-9D58-4C3C-8E41-77724040973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22702562-9931-4C45-B0E3-001B567ED4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27C6B777-1C8D-40B3-BC14-3924700DB169}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{27C6B777-1C8D-40B3-BC14-3924700DB169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>FG</t>
   </si>
   <si>
-    <t>Laba Kotor</t>
-  </si>
-  <si>
     <t>Operational Cost</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>HO</t>
   </si>
   <si>
-    <t>Laba Operational</t>
-  </si>
-  <si>
     <t>Kat_1</t>
   </si>
   <si>
@@ -96,13 +90,19 @@
   </si>
   <si>
     <t>Potongan/Return</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Operational Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,32 +470,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0330877-21CC-48CE-89EE-C2E5DFF64AB6}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="1">
         <v>45658</v>
@@ -519,7 +519,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -676,13 +676,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
       <c r="F6">
         <v>12</v>
@@ -706,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -714,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -752,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -782,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -790,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -817,12 +817,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>10</v>
